--- a/biology/Zoologie/Acanthodactylus_dumerilii/Acanthodactylus_dumerilii.xlsx
+++ b/biology/Zoologie/Acanthodactylus_dumerilii/Acanthodactylus_dumerilii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acanthodactylus dumerilii est une espèce de sauriens de la famille des Lacertidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acanthodactylus dumerilii est une espèce de sauriens de la famille des Lacertidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Sénégal, au Mali, en Mauritanie, au Maroc, en Algérie, en Tunisie et en Libye[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Sénégal, au Mali, en Mauritanie, au Maroc, en Algérie, en Tunisie et en Libye.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'André Marie Constant Duméril[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'André Marie Constant Duméril.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Lataste, 1885 : Les Acanthodactyles de Barbarie et les autres espèces du genre. Description d’une nouvelle espèce, du pays des Çomalis (Acanthodactylus Vaillanti). Annali del Museo Civico di Storia Naturale di Genova, ser. 2A, vol. 2, p. 476–516 (texte intégral).
 Milne-Edwards, 1829 : Recherches zoologiques pour servir à l'histoire des lézards, extraites d'une monographie de ce genre. Annales des Sciences Naturelles, Paris, vol. 16, p. 50-89 (texte intégral).</t>
